--- a/SpringBootProje.xlsx
+++ b/SpringBootProje.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\3- Ders Uygulamalari\spring-boot-intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\6- Proje\GreenRent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D81108-7C4F-4E35-8349-F8C41225464D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDD178-9B46-4987-A07D-99B1C7032C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" firstSheet="2" activeTab="4" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" firstSheet="5" activeTab="10" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Project" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="4- Exceptions" sheetId="12" r:id="rId8"/>
     <sheet name="5- Domain" sheetId="10" r:id="rId9"/>
     <sheet name="6- Dto" sheetId="13" r:id="rId10"/>
+    <sheet name="7-Security" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="508">
   <si>
     <t>1-</t>
   </si>
@@ -12607,6 +12608,383 @@
   </si>
   <si>
     <t>@DeleteMapping("/{id}")</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>dependency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;io.jsonwebtoken&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;jjwt&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;${jjwt.version}&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>dependency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jjwt.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jjwt.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>bu eklenecek sadece, üstteki var</t>
+  </si>
+  <si>
+    <t>Properties de bu olacak</t>
+  </si>
+  <si>
+    <t>User Login:</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/login</t>
+  </si>
+  <si>
+    <t>username: user</t>
+  </si>
+  <si>
+    <t>password: (terminalde oluşan şifre)</t>
+  </si>
+  <si>
+    <t>Ama bunu kullanmayacağız</t>
   </si>
 </sst>
 </file>
@@ -12956,7 +13334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13116,6 +13494,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13540,10 +13924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA123DA-0E07-4D15-B95A-D66C8148C7CF}">
-  <dimension ref="A1:XFC40"/>
+  <dimension ref="A1:XFC55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="XFD9" sqref="XFD9"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -13557,10 +13941,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="71"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" ht="9" customHeight="1"/>
     <row r="3" spans="1:3">
@@ -13752,22 +14136,22 @@
         <v>481</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="2:4">
       <c r="C33" s="69" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="2:4">
       <c r="C34" s="70" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="2:4">
       <c r="C35" s="69" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="2:4">
       <c r="C36" s="69" t="s">
         <v>481</v>
       </c>
@@ -13775,24 +14159,96 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="2:4">
       <c r="C37" s="69" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="2:4">
       <c r="C38" s="70" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="2:4">
       <c r="C39" s="70" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="2:4">
       <c r="C40" s="69" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="C43" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="C45" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>502</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" s="72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="C49" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="C50" s="72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D53" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="C54" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="C55" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -13801,9 +14257,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" xr:uid="{9C0F14B3-A953-45C0-848B-9C96C9F34513}"/>
+    <hyperlink ref="C53" r:id="rId2" xr:uid="{3B0CB9D6-9663-4E17-A721-6D4ACBFEAE38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14422,6 +14879,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3207CA-269F-4F76-B399-1E3145534DB1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14993,8 +15462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E714A-D602-43E3-8E07-5687F6A50ED2}">
   <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -15126,7 +15595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57238B4-FED3-4FCF-8D77-E483CF8B1216}">
   <dimension ref="B1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>

--- a/SpringBootProje.xlsx
+++ b/SpringBootProje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\6- Proje\GreenRent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDD178-9B46-4987-A07D-99B1C7032C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F546F6-D790-4A40-825C-7F5585F9DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" firstSheet="5" activeTab="10" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Project" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="528">
   <si>
     <t>1-</t>
   </si>
@@ -12986,12 +12986,988 @@
   <si>
     <t>Ama bunu kullanmayacağız</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.mapstruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${mapstruct.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.4.2.Final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.apache.maven.plugins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>maven-compiler-plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>annotationProcessorPaths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.mapstruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct-processor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${mapstruct.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>annotationProcessorPaths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Plugins içine eklenecek</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${java.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!-- depending on your project. In this example, Java 11 is used --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${java.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!-- depending on your project. In this example, Java 11 is used --&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13116,6 +14092,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FFBC0BA2"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF61AA0D"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -13334,7 +14316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13504,6 +14486,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13924,10 +14918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA123DA-0E07-4D15-B95A-D66C8148C7CF}">
-  <dimension ref="A1:XFC55"/>
+  <dimension ref="A1:XFC79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -14128,127 +15122,235 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>481</v>
-      </c>
-    </row>
     <row r="33" spans="2:4">
-      <c r="C33" s="69" t="s">
-        <v>482</v>
+      <c r="B33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="C34" s="70" t="s">
-        <v>483</v>
+      <c r="C34" s="72" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="C35" s="69" t="s">
-        <v>484</v>
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" s="69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" s="72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>488</v>
+      </c>
+      <c r="C40" s="68" t="s">
         <v>481</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" s="69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" s="70" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="C43" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="D44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="69" t="s">
+    <row r="45" spans="2:4">
+      <c r="C45" s="69" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="C38" s="70" t="s">
+    <row r="46" spans="2:4">
+      <c r="C46" s="70" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="C39" s="70" t="s">
+    <row r="47" spans="2:4">
+      <c r="C47" s="70" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="C40" s="69" t="s">
+    <row r="48" spans="2:4">
+      <c r="C48" s="69" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="C41" s="11" t="s">
+    <row r="49" spans="2:4">
+      <c r="C49" s="11" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="11" t="s">
+    <row r="50" spans="2:4">
+      <c r="C50" s="11" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="C43" s="11" t="s">
+    <row r="51" spans="2:4">
+      <c r="C51" s="11" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="C44" s="11" t="s">
+    <row r="52" spans="2:4">
+      <c r="C52" s="11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="C45" s="11" t="s">
+    <row r="53" spans="2:4">
+      <c r="C53" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
-        <v>502</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="C48" s="72" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="C49" s="69" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="C50" s="72" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
+    <row r="54" spans="2:4">
+      <c r="C54" s="68" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="C55" s="69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="C56" s="70" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="C57" s="70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="C58" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
         <v>503</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D61" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="C54" t="s">
+    <row r="62" spans="2:4">
+      <c r="C62" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
-      <c r="C55" t="s">
+    <row r="63" spans="2:4">
+      <c r="C63" t="s">
         <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>525</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" s="70" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" s="75" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" s="75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="C69" s="75" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" s="76" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" s="76" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" s="77" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" s="72" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" s="69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" s="69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" s="72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" s="77" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" s="70" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -14257,7 +15359,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" xr:uid="{9C0F14B3-A953-45C0-848B-9C96C9F34513}"/>
-    <hyperlink ref="C53" r:id="rId2" xr:uid="{3B0CB9D6-9663-4E17-A721-6D4ACBFEAE38}"/>
+    <hyperlink ref="C61" r:id="rId2" xr:uid="{3B0CB9D6-9663-4E17-A721-6D4ACBFEAE38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14886,7 +15988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3207CA-269F-4F76-B399-1E3145534DB1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/SpringBootProje.xlsx
+++ b/SpringBootProje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\6- Proje\GreenRent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F546F6-D790-4A40-825C-7F5585F9DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3919C99-6E89-4CA4-B7B1-C068BF6376BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="537">
   <si>
     <t>1-</t>
   </si>
@@ -12621,12 +12621,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>dependency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -12635,6 +12635,76 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -12645,16 +12715,146 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
+      <t>jjwt.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jjwt.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Properties de bu olacak</t>
+  </si>
+  <si>
+    <t>User Login:</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/login</t>
+  </si>
+  <si>
+    <t>username: user</t>
+  </si>
+  <si>
+    <t>password: (terminalde oluşan şifre)</t>
+  </si>
+  <si>
+    <t>Ama bunu kullanmayacağız</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
       <t>groupId</t>
     </r>
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;io.jsonwebtoken&lt;/</t>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.mapstruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -12669,7 +12869,7 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -12693,11 +12893,29 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;jjwt&lt;/</t>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -12712,7 +12930,7 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -12736,11 +12954,29 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;${jjwt.version}&lt;/</t>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${mapstruct.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -12755,7 +12991,7 @@
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -12764,6 +13000,43 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.4.2.Final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -12774,12 +13047,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>dependency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
+      <t>mapstruct.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -12798,7 +13071,209 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>properties</t>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.apache.maven.plugins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>maven-compiler-plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>annotationProcessorPaths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
     </r>
     <r>
       <rPr>
@@ -12807,16 +13282,528 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
       <t>&gt;</t>
     </r>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.mapstruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mapstruct-processor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${mapstruct.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>annotationProcessorPaths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AA0D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Plugins içine eklenecek</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${java.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!-- depending on your project. In this example, Java 11 is used --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${java.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!-- depending on your project. In this example, Java 11 is used --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!-- other annotation processors --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
         <color rgb="FFBCBF01"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
@@ -12831,7 +13818,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>java.version</t>
+      <t>groupId</t>
     </r>
     <r>
       <rPr>
@@ -12849,7 +13836,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>11</t>
+      <t>org.projectlombok</t>
     </r>
     <r>
       <rPr>
@@ -12868,7 +13855,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>java.version</t>
+      <t>groupId</t>
     </r>
     <r>
       <rPr>
@@ -12882,6 +13869,274 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>lombok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${lombok.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0E4A8E"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>lombok-mapstruct-binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${lombok-mapstruct-binding.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -12892,7 +14147,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>jjwt.version</t>
+      <t>lombok-mapstruct-binding.version</t>
     </r>
     <r>
       <rPr>
@@ -12910,7 +14165,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>0.9.1</t>
+      <t>0.2.0</t>
     </r>
     <r>
       <rPr>
@@ -12929,7 +14184,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>jjwt.version</t>
+      <t>lombok-mapstruct-binding.version</t>
     </r>
     <r>
       <rPr>
@@ -12943,6 +14198,43 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>lombok.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.18.24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -12953,12 +14245,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0E4A8E"/>
+      <t>lombok.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBF01"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -12966,27 +14258,6 @@
     </r>
   </si>
   <si>
-    <t>bu eklenecek sadece, üstteki var</t>
-  </si>
-  <si>
-    <t>Properties de bu olacak</t>
-  </si>
-  <si>
-    <t>User Login:</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/login</t>
-  </si>
-  <si>
-    <t>username: user</t>
-  </si>
-  <si>
-    <t>password: (terminalde oluşan şifre)</t>
-  </si>
-  <si>
-    <t>Ama bunu kullanmayacağız</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">    </t>
     </r>
@@ -13025,7 +14296,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>org.mapstruct</t>
+      <t>io.jsonwebtoken</t>
     </r>
     <r>
       <rPr>
@@ -13086,7 +14357,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>mapstruct</t>
+      <t>jjwt</t>
     </r>
     <r>
       <rPr>
@@ -13147,7 +14418,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>${mapstruct.version}</t>
+      <t>${jjwt.version}</t>
     </r>
     <r>
       <rPr>
@@ -13180,6 +14451,76 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.projectlombok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -13190,12 +14531,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>mapstruct.version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -13208,12 +14549,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>1.4.2.Final</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
+      <t>lombok-mapstruct-binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -13227,12 +14568,12 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>mapstruct.version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
+      <t>artifactId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
@@ -13241,7 +14582,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;</t>
+      <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
       <rPr>
@@ -13251,7 +14592,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>plugin</t>
+      <t>version</t>
     </r>
     <r>
       <rPr>
@@ -13262,19 +14603,23 @@
       </rPr>
       <t>&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>${lombok-mapstruct-binding.version}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
     </r>
     <r>
       <rPr>
@@ -13284,682 +14629,16 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBC0BA2"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
       <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>org.apache.maven.plugins</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>artifactId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>maven-compiler-plugin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>artifactId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>configuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>annotationProcessorPaths</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0E4A8E"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0E4A8E"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>org.mapstruct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>groupId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>artifactId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>mapstruct-processor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>artifactId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>${mapstruct.version}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBCBF01"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0E4A8E"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0E4A8E"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>annotationProcessorPaths</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>configuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF61AA0D"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>plugin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFBC0BA2"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Plugins içine eklenecek</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>${java.version}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;!-- depending on your project. In this example, Java 11 is used --&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>${java.version}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF3F9101"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;!-- depending on your project. In this example, Java 11 is used --&gt;</t>
     </r>
   </si>
 </sst>
@@ -14484,9 +15163,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -14498,6 +15174,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14918,10 +15597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA123DA-0E07-4D15-B95A-D66C8148C7CF}">
-  <dimension ref="A1:XFC79"/>
+  <dimension ref="A1:XFC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:C79"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -14935,10 +15614,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="73"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="9" customHeight="1"/>
     <row r="3" spans="1:3">
@@ -15124,233 +15803,323 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="C34" s="72" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="C35" s="69" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" s="69" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="C37" s="72" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
+      <c r="C37" s="69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" s="69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" s="72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
         <v>488</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C42" s="68" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="C41" s="69" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="70" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="69" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="C44" s="69" t="s">
-        <v>481</v>
-      </c>
-      <c r="D44" t="s">
-        <v>104</v>
+      <c r="C44" s="70" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="C45" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" s="69" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="C46" s="70" t="s">
+    <row r="48" spans="2:4">
+      <c r="C48" s="70" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
-      <c r="C47" s="70" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="70" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="C48" s="69" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="69" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="C49" s="11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="C50" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="C51" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="C52" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="C53" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="C54" s="68" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="69" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="52" spans="3:3">
+      <c r="C52" s="69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
       <c r="C55" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="69" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="70" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="70" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="69" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="69" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="70" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="C65" s="70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" s="69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>497</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="C71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>519</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="C74" s="70" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="C75" s="74" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="C56" s="70" t="s">
+    <row r="76" spans="2:4">
+      <c r="C76" s="74" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
-      <c r="C57" s="70" t="s">
+    <row r="77" spans="2:4">
+      <c r="C77" s="74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="C78" s="75" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="C79" s="75" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="C58" s="69" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="s">
-        <v>503</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D61" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="C62" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="C63" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" t="s">
+    <row r="80" spans="2:4">
+      <c r="C80" s="76" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="72" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="69" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="75" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="72" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="69" t="s">
         <v>525</v>
       </c>
-      <c r="C65" s="74" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="C66" s="70" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" s="75" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="C68" s="75" t="s">
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="69" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
-      <c r="C69" s="75" t="s">
+    <row r="91" spans="3:3">
+      <c r="C91" s="72" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="C70" s="76" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" s="72" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="69" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="C71" s="76" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" s="69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="72" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="C72" s="77" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" s="76" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="C73" s="72" t="s">
+    <row r="98" spans="3:3">
+      <c r="C98" s="70" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="C74" s="69" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="C75" s="69" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="C76" s="69" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="C77" s="72" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="C78" s="77" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="C79" s="70" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -15359,7 +16128,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" xr:uid="{9C0F14B3-A953-45C0-848B-9C96C9F34513}"/>
-    <hyperlink ref="C61" r:id="rId2" xr:uid="{3B0CB9D6-9663-4E17-A721-6D4ACBFEAE38}"/>
+    <hyperlink ref="C69" r:id="rId2" xr:uid="{3B0CB9D6-9663-4E17-A721-6D4ACBFEAE38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/SpringBootProje.xlsx
+++ b/SpringBootProje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\6- Proje\GreenRent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3919C99-6E89-4CA4-B7B1-C068BF6376BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE197FC4-D99A-4248-857C-9249ABAAB6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
   </bookViews>
@@ -15599,7 +15599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA123DA-0E07-4D15-B95A-D66C8148C7CF}">
   <dimension ref="A1:XFC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A67" sqref="A67:XFD69"/>
     </sheetView>
   </sheetViews>

--- a/SpringBootProje.xlsx
+++ b/SpringBootProje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\6- Proje\GreenRent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE197FC4-D99A-4248-857C-9249ABAAB6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D43A88-6DD2-4B1C-94AB-BCB5F5F494D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="541">
   <si>
     <t>1-</t>
   </si>
@@ -449,6 +449,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    </t>
     </r>
     <r>
@@ -459,16 +483,40 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: jdbc:mysql://localhost:3306/springboot</t>
+      <t>hibernate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ddl-auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: update</t>
     </r>
   </si>
   <si>
@@ -483,16 +531,103 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: root</t>
+      <t>show-sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <t>application.yml</t>
+  </si>
+  <si>
+    <t>application-dev.yml</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>8081</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
     </r>
   </si>
   <si>
@@ -507,16 +642,40 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: 1234</t>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: logs/studentapp.log</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
     </r>
   </si>
   <si>
@@ -531,16 +690,26 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>driver-class-name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: com.mysql.cj.jdbc.Driver</t>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"%d %-5level [%thread] %logger:%msg%n"</t>
     </r>
   </si>
   <si>
@@ -555,7 +724,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>jpa</t>
+      <t>level</t>
     </r>
     <r>
       <rPr>
@@ -579,7 +748,117 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>hibernate</t>
+      <t>'[org.springframework.web]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: DEBUG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'[org.hibernate]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: INFO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'[com.tpe]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: DEBUG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: logs/studentapp-dev.log</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'[org.hibernate]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: DEBUG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>management</t>
     </r>
     <r>
       <rPr>
@@ -593,6 +872,54 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>endpoints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -603,16 +930,31 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>ddl-auto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: update</t>
+      <t>exposure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>include: ['trace','auditevents','threaddump','configprops','health','env','metrics','logfile','loggers','beans']</t>
     </r>
   </si>
   <si>
@@ -627,16 +969,21 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>show-sql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t>'[org.springframework.web]'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: WARN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -646,291 +993,7 @@
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
       </rPr>
-      <t>true</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    database-platform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: org.hibernate.dialect.MySQL8Dialect</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[hibernate.format_sql]'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: true</t>
-    </r>
-  </si>
-  <si>
-    <t>application.yml</t>
-  </si>
-  <si>
-    <t>application-dev.yml</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>port</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>8081</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>logging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: logs/studentapp.log</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>"%d %-5level [%thread] %logger:%msg%n"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>level</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[org.springframework.web]'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: DEBUG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[org.hibernate]'</t>
+      <t>'[com.tpe]'</t>
     </r>
     <r>
       <rPr>
@@ -943,324 +1006,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[com.tpe]'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: DEBUG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: logs/studentapp-dev.log</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[org.hibernate]'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: DEBUG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>endpoints</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>exposure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>include: ['trace','auditevents','threaddump','configprops','health','env','metrics','logfile','loggers','beans']</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[org.springframework.web]'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: WARN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>'[com.tpe]'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: INFO</t>
-    </r>
-  </si>
-  <si>
     <t>security devreye giriyor, random password, username : user</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>security</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: John</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>: John</t>
-    </r>
   </si>
   <si>
     <t>io.jsonwebtoken</t>
@@ -14641,12 +14387,310 @@
       <t>&gt;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: jdbc:postgresql://localhost:5432/carrental_db</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: carrentaluser</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>driver-class-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: org.postgresql.Driver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    database-platform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: org.hibernate.dialect.PostgreSQLDialect</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>multipart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>max-file-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 3MB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>max-request-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 3MB</t>
+    </r>
+  </si>
+  <si>
+    <t>upload edilen dosya boyutu max 3mb</t>
+  </si>
+  <si>
+    <t>download edilebilen dosya boyutu max 3mb</t>
+  </si>
+  <si>
+    <r>
+      <t>greenrent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwtSecret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: greenRent@12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwtExpirationMs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 86400000</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14779,6 +14823,14 @@
       <color rgb="FF61AA0D"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -14995,7 +15047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -15178,6 +15230,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15202,13 +15255,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>107370</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>132824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15600,7 +15653,7 @@
   <dimension ref="A1:XFC98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD69"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -15709,7 +15762,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="9" customHeight="1"/>
@@ -15720,20 +15773,20 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
+      <c r="D17" s="78" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="D18" t="s">
-        <v>128</v>
+      <c r="D18" s="78" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="78" t="s">
         <v>34</v>
       </c>
     </row>
@@ -15741,7 +15794,7 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="78" t="s">
         <v>35</v>
       </c>
     </row>
@@ -15749,7 +15802,7 @@
       <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="78" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15757,7 +15810,7 @@
       <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="78" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15765,154 +15818,164 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>444</v>
+      <c r="D23" s="78" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
-        <v>129</v>
+      <c r="D24" s="78" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="D25" t="s">
+      <c r="D25" s="78" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="78" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="2:4">
       <c r="C30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="78"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="D32" s="78"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>492</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="2:4">
       <c r="C34" s="72" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="C35" s="69" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" s="69" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="69" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" s="69" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" s="72" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="69" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="C44" s="70" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="C45" s="69" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="C46" s="69" t="s">
-        <v>481</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
+        <v>470</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" s="69" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" s="70" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="70" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="69" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="69" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="69" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="70" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="70" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="69" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="3:3">
@@ -15920,206 +15983,206 @@
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="69" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="69" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="70" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="70" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="69" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="69" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="69" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="70" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="C65" s="70" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="C66" s="69" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D69" t="s">
-        <v>501</v>
+        <v>487</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="C70" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="C71" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C73" s="73" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="C74" s="70" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="C75" s="74" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="C76" s="74" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="C77" s="74" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="C78" s="75" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="C79" s="75" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="C80" s="76" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="72" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="69" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="69" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="69" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="72" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="75" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="72" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="69" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="69" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="69" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="72" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="72" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="69" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="69" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="69" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="72" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="76" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="70" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -16153,7 +16216,7 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -16161,7 +16224,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -16179,7 +16242,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
@@ -16196,7 +16259,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
@@ -16213,7 +16276,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -16227,7 +16290,7 @@
     <row r="6" spans="2:13">
       <c r="B6" s="20"/>
       <c r="D6" s="27" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -16241,7 +16304,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
@@ -16270,7 +16333,7 @@
     <row r="9" spans="2:13">
       <c r="B9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -16297,7 +16360,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="35" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -16312,10 +16375,10 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -16329,10 +16392,10 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -16346,10 +16409,10 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -16364,7 +16427,7 @@
     <row r="16" spans="2:13">
       <c r="B16" s="20"/>
       <c r="D16" s="27" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -16378,7 +16441,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="35" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
@@ -16406,7 +16469,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
@@ -16421,7 +16484,7 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="20" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
@@ -16436,7 +16499,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="20" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
@@ -16452,7 +16515,7 @@
     <row r="22" spans="2:13">
       <c r="B22" s="20"/>
       <c r="D22" s="27" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -16466,7 +16529,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="35" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
@@ -16482,7 +16545,7 @@
     <row r="25" spans="2:13" ht="15" customHeight="1">
       <c r="B25" s="19"/>
       <c r="D25" s="23" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -16496,10 +16559,10 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -16513,7 +16576,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="35" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
@@ -16529,7 +16592,7 @@
     <row r="29" spans="2:13">
       <c r="B29" s="19"/>
       <c r="D29" s="23" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -16543,10 +16606,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -16560,7 +16623,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="35" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="32"/>
@@ -16588,7 +16651,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="35" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
@@ -16603,15 +16666,15 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="51" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -16625,10 +16688,10 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="43" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -16642,10 +16705,10 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="44" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -16659,7 +16722,7 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="44" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="28"/>
@@ -16674,7 +16737,7 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="44" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="28"/>
@@ -16689,7 +16752,7 @@
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="44" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="28"/>
@@ -16704,7 +16767,7 @@
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="44" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="28"/>
@@ -16719,7 +16782,7 @@
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="44" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -16734,7 +16797,7 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="32"/>
@@ -16767,10 +16830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B123E-24EE-4C0D-A002-560568C44D82}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B37"/>
+      <selection activeCell="D33" sqref="D33:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -16788,7 +16851,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -16810,8 +16873,8 @@
       <c r="B5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
-        <v>142</v>
+      <c r="D5" s="78" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -16821,7 +16884,7 @@
       <c r="B6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
@@ -16830,8 +16893,8 @@
       <c r="B7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>259</v>
+      <c r="D7" s="78" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16841,6 +16904,7 @@
       <c r="B8" s="12" t="s">
         <v>68</v>
       </c>
+      <c r="D8" s="78"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
@@ -16849,119 +16913,124 @@
       <c r="B9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
-        <v>260</v>
+      <c r="D9" s="78" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="D10" s="78"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
-        <v>139</v>
+      <c r="D11" s="78" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="B12" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="B13" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="B14" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>140</v>
+      <c r="B15" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>106</v>
+      <c r="B17" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>108</v>
+      <c r="B18" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>107</v>
+      <c r="B19" s="8" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>141</v>
+      <c r="B22" s="7"/>
+      <c r="D22" s="78" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -16969,26 +17038,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>430</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>79</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>80</v>
+      <c r="B25" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -16996,32 +17067,32 @@
         <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>81</v>
+        <v>534</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="11" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>431</v>
+      <c r="B29" s="11" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -17029,7 +17100,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>87</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -17037,55 +17108,93 @@
         <v>28</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>88</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="78"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="D35" s="78"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="D36" s="78"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="D37" s="78"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="78"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -17115,7 +17224,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17131,7 +17240,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -17145,7 +17254,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -17153,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -17161,7 +17270,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -17169,7 +17278,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -17177,7 +17286,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -17185,7 +17294,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -17193,7 +17302,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -17201,7 +17310,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -17209,7 +17318,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -17223,10 +17332,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17234,10 +17343,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -17245,7 +17354,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17253,7 +17362,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17261,7 +17370,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -17333,7 +17442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E714A-D602-43E3-8E07-5687F6A50ED2}">
   <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -17357,7 +17466,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="75">
@@ -17371,7 +17480,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="30">
@@ -17385,7 +17494,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="30">
@@ -17399,7 +17508,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1">
@@ -17413,7 +17522,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="30">
@@ -17427,32 +17536,32 @@
         <v>50</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="B8" s="41" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="41" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E9" s="16"/>
     </row>
@@ -17484,7 +17593,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -17500,10 +17609,10 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="20" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -17519,10 +17628,10 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="21" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -17539,7 +17648,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="22"/>
       <c r="D5" s="27" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -17556,7 +17665,7 @@
     <row r="6" spans="2:15">
       <c r="B6" s="29"/>
       <c r="D6" s="27" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -17573,7 +17682,7 @@
     <row r="7" spans="2:15">
       <c r="B7" s="29"/>
       <c r="D7" s="31" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -17608,7 +17717,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -17624,10 +17733,10 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="35" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -17648,7 +17757,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -17664,7 +17773,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="37" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
@@ -17681,10 +17790,10 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="59" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -17700,10 +17809,10 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="60" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -17719,7 +17828,7 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="61" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
@@ -17736,10 +17845,10 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="61" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -17755,7 +17864,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="61" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
@@ -17772,10 +17881,10 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="61" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -17791,7 +17900,7 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="62" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32"/>
@@ -17808,13 +17917,13 @@
     </row>
     <row r="23" spans="2:15">
       <c r="D23" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:15"/>
     <row r="25" spans="2:15" ht="15" customHeight="1">
       <c r="B25" s="19" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
@@ -17834,7 +17943,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -17850,10 +17959,10 @@
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1">
       <c r="B27" s="21" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -17869,10 +17978,10 @@
     </row>
     <row r="28" spans="2:15" ht="15" customHeight="1">
       <c r="B28" s="43" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -17888,10 +17997,10 @@
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1">
       <c r="B29" s="44" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -17907,7 +18016,7 @@
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1">
       <c r="B30" s="45" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="32"/>
@@ -17924,10 +18033,10 @@
     </row>
     <row r="32" spans="2:15" ht="15" customHeight="1">
       <c r="B32" s="19" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -17943,7 +18052,7 @@
     </row>
     <row r="33" spans="2:15" ht="15" customHeight="1">
       <c r="B33" s="20" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="28"/>
@@ -17960,10 +18069,10 @@
     </row>
     <row r="34" spans="2:15" ht="15" customHeight="1">
       <c r="B34" s="21" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -17979,10 +18088,10 @@
     </row>
     <row r="35" spans="2:15" ht="15" customHeight="1">
       <c r="B35" s="43" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -17998,10 +18107,10 @@
     </row>
     <row r="36" spans="2:15" ht="15" customHeight="1">
       <c r="B36" s="44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -18017,7 +18126,7 @@
     </row>
     <row r="37" spans="2:15" ht="15" customHeight="1">
       <c r="B37" s="45" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
@@ -18034,7 +18143,7 @@
     </row>
     <row r="39" spans="2:15" ht="15" customHeight="1">
       <c r="B39" s="19" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
@@ -18051,10 +18160,10 @@
     </row>
     <row r="40" spans="2:15" ht="15" customHeight="1">
       <c r="B40" s="20" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -18070,10 +18179,10 @@
     </row>
     <row r="41" spans="2:15" ht="15" customHeight="1">
       <c r="B41" s="21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -18089,7 +18198,7 @@
     </row>
     <row r="42" spans="2:15" ht="15" customHeight="1">
       <c r="B42" s="43" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="28"/>
@@ -18106,7 +18215,7 @@
     </row>
     <row r="43" spans="2:15" ht="15" customHeight="1">
       <c r="B43" s="44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -18123,7 +18232,7 @@
     </row>
     <row r="44" spans="2:15" ht="15" customHeight="1">
       <c r="B44" s="45" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="32"/>
@@ -18140,10 +18249,10 @@
     </row>
     <row r="46" spans="2:15" ht="15" customHeight="1">
       <c r="B46" s="36" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -18159,10 +18268,10 @@
     </row>
     <row r="47" spans="2:15" ht="15" customHeight="1">
       <c r="B47" s="21" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -18178,10 +18287,10 @@
     </row>
     <row r="48" spans="2:15" ht="15" customHeight="1">
       <c r="B48" s="43" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -18197,10 +18306,10 @@
     </row>
     <row r="49" spans="2:15" ht="15" customHeight="1">
       <c r="B49" s="44" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -18216,10 +18325,10 @@
     </row>
     <row r="50" spans="2:15" ht="15" customHeight="1">
       <c r="B50" s="44" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -18235,7 +18344,7 @@
     </row>
     <row r="51" spans="2:15" ht="15" customHeight="1">
       <c r="B51" s="44" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="28"/>
@@ -18252,10 +18361,10 @@
     </row>
     <row r="52" spans="2:15" ht="15" customHeight="1">
       <c r="B52" s="44" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -18271,7 +18380,7 @@
     </row>
     <row r="53" spans="2:15" ht="15" customHeight="1">
       <c r="B53" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="32"/>
@@ -18303,10 +18412,10 @@
     </row>
     <row r="56" spans="2:15" ht="15" customHeight="1">
       <c r="B56" s="53" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -18322,10 +18431,10 @@
     </row>
     <row r="57" spans="2:15" ht="15" customHeight="1">
       <c r="B57" s="21" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -18341,10 +18450,10 @@
     </row>
     <row r="58" spans="2:15" ht="15" customHeight="1">
       <c r="B58" s="43" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -18360,10 +18469,10 @@
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
       <c r="B59" s="44" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -18379,7 +18488,7 @@
     </row>
     <row r="60" spans="2:15" ht="15" customHeight="1">
       <c r="B60" s="44" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="28"/>
@@ -18396,7 +18505,7 @@
     </row>
     <row r="61" spans="2:15" ht="15" customHeight="1">
       <c r="B61" s="44" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="28"/>
@@ -18413,10 +18522,10 @@
     </row>
     <row r="62" spans="2:15" ht="15" customHeight="1">
       <c r="B62" s="44" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -18432,7 +18541,7 @@
     </row>
     <row r="63" spans="2:15" ht="15" customHeight="1">
       <c r="B63" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="32"/>
@@ -18449,10 +18558,10 @@
     </row>
     <row r="65" spans="2:15" ht="15" customHeight="1">
       <c r="B65" s="19" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
@@ -18468,10 +18577,10 @@
     </row>
     <row r="66" spans="2:15" ht="15" customHeight="1">
       <c r="B66" s="21" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -18487,10 +18596,10 @@
     </row>
     <row r="67" spans="2:15" ht="15" customHeight="1">
       <c r="B67" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" s="27" t="s">
         <v>351</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>362</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -18506,7 +18615,7 @@
     </row>
     <row r="68" spans="2:15" ht="15" customHeight="1">
       <c r="B68" s="44" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="28"/>
@@ -18523,10 +18632,10 @@
     </row>
     <row r="69" spans="2:15" ht="15" customHeight="1">
       <c r="B69" s="43" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -18542,10 +18651,10 @@
     </row>
     <row r="70" spans="2:15" ht="15" customHeight="1">
       <c r="B70" s="44" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -18561,10 +18670,10 @@
     </row>
     <row r="71" spans="2:15" ht="15" customHeight="1">
       <c r="B71" s="44" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -18580,7 +18689,7 @@
     </row>
     <row r="72" spans="2:15" ht="15" customHeight="1">
       <c r="B72" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="32"/>
@@ -18597,15 +18706,15 @@
     </row>
     <row r="73" spans="2:15" ht="15" customHeight="1">
       <c r="B73" s="44" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="2:15" ht="15" customHeight="1">
       <c r="B74" s="19" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -18621,10 +18730,10 @@
     </row>
     <row r="75" spans="2:15" ht="15" customHeight="1">
       <c r="B75" s="21" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -18640,10 +18749,10 @@
     </row>
     <row r="76" spans="2:15" ht="15" customHeight="1">
       <c r="B76" s="43" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -18659,10 +18768,10 @@
     </row>
     <row r="77" spans="2:15" ht="15" customHeight="1">
       <c r="B77" s="44" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -18678,7 +18787,7 @@
     </row>
     <row r="78" spans="2:15" ht="15" customHeight="1">
       <c r="B78" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="32"/>
@@ -18695,15 +18804,15 @@
     </row>
     <row r="79" spans="2:15" ht="15" customHeight="1">
       <c r="B79" s="65" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="2:15" ht="15" customHeight="1">
       <c r="B80" s="19" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
@@ -18719,10 +18828,10 @@
     </row>
     <row r="81" spans="2:15" ht="15" customHeight="1">
       <c r="B81" s="21" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -18738,10 +18847,10 @@
     </row>
     <row r="82" spans="2:15" ht="15" customHeight="1">
       <c r="B82" s="43" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -18757,10 +18866,10 @@
     </row>
     <row r="83" spans="2:15" ht="15" customHeight="1">
       <c r="B83" s="44" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -18776,7 +18885,7 @@
     </row>
     <row r="84" spans="2:15" ht="15" customHeight="1">
       <c r="B84" s="45" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="32"/>
@@ -18793,10 +18902,10 @@
     </row>
     <row r="86" spans="2:15" ht="15" customHeight="1">
       <c r="B86" s="50" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -18813,7 +18922,7 @@
     <row r="87" spans="2:15" ht="15" customHeight="1">
       <c r="B87" s="22"/>
       <c r="D87" s="31" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
@@ -18829,12 +18938,12 @@
     </row>
     <row r="88" spans="2:15" ht="15" customHeight="1">
       <c r="B88" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="2:15" ht="15" customHeight="1">
       <c r="B89" s="19" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="24"/>
@@ -18851,10 +18960,10 @@
     </row>
     <row r="90" spans="2:15" ht="15" customHeight="1">
       <c r="B90" s="21" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -18870,10 +18979,10 @@
     </row>
     <row r="91" spans="2:15" ht="15" customHeight="1">
       <c r="B91" s="43" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -18889,10 +18998,10 @@
     </row>
     <row r="92" spans="2:15" ht="15" customHeight="1">
       <c r="B92" s="44" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -18908,10 +19017,10 @@
     </row>
     <row r="93" spans="2:15" ht="15" customHeight="1">
       <c r="B93" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
@@ -18927,12 +19036,12 @@
     </row>
     <row r="98" spans="2:2" ht="15" customHeight="1">
       <c r="B98" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="15" customHeight="1">
       <c r="B99" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -18959,7 +19068,7 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -18967,7 +19076,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -18981,10 +19090,10 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="21" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -19025,10 +19134,10 @@
     <row r="6" spans="2:13"/>
     <row r="7" spans="2:13">
       <c r="B7" s="42" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
@@ -19043,10 +19152,10 @@
     <row r="8" spans="2:13"/>
     <row r="9" spans="2:13">
       <c r="B9" s="19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -19060,10 +19169,10 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="21" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -19077,7 +19186,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="43" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
@@ -19092,7 +19201,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="44" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
@@ -19107,7 +19216,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -19123,10 +19232,10 @@
     <row r="14" spans="2:13"/>
     <row r="15" spans="2:13">
       <c r="B15" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -19140,7 +19249,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
@@ -19155,10 +19264,10 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="43" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -19172,10 +19281,10 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -19189,10 +19298,10 @@
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1">
       <c r="B20" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -19206,7 +19315,7 @@
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1">
       <c r="B21" s="21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
@@ -19221,10 +19330,10 @@
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="B22" s="43" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -19238,7 +19347,7 @@
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1">
       <c r="B23" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
@@ -19253,10 +19362,10 @@
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1">
       <c r="B25" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -19270,7 +19379,7 @@
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1">
       <c r="B26" s="21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="28"/>
@@ -19285,10 +19394,10 @@
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1">
       <c r="B27" s="43" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -19302,10 +19411,10 @@
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1">
       <c r="B28" s="44" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -19319,10 +19428,10 @@
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1">
       <c r="B29" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -19336,10 +19445,10 @@
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1">
       <c r="B31" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -19353,7 +19462,7 @@
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1">
       <c r="B32" s="21" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="28"/>
@@ -19368,7 +19477,7 @@
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1">
       <c r="B33" s="43" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="28"/>
@@ -19396,10 +19505,10 @@
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1">
       <c r="B35" s="57" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -19413,10 +19522,10 @@
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1">
       <c r="B36" s="58" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -19430,7 +19539,7 @@
     </row>
     <row r="37" spans="2:13" ht="15" customHeight="1">
       <c r="B37" s="44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="28"/>
@@ -19458,10 +19567,10 @@
     </row>
     <row r="39" spans="2:13" ht="15" customHeight="1">
       <c r="B39" s="58" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -19475,10 +19584,10 @@
     </row>
     <row r="40" spans="2:13" ht="15" customHeight="1">
       <c r="B40" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
@@ -19492,10 +19601,10 @@
     </row>
     <row r="42" spans="2:13" ht="15" customHeight="1">
       <c r="B42" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -19509,7 +19618,7 @@
     </row>
     <row r="43" spans="2:13" ht="15" customHeight="1">
       <c r="B43" s="21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -19524,10 +19633,10 @@
     </row>
     <row r="44" spans="2:13" ht="15" customHeight="1">
       <c r="B44" s="43" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -19541,10 +19650,10 @@
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1">
       <c r="B45" s="44" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -19558,10 +19667,10 @@
     </row>
     <row r="46" spans="2:13" ht="15" customHeight="1">
       <c r="B46" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -19575,10 +19684,10 @@
     </row>
     <row r="48" spans="2:13" ht="15" customHeight="1">
       <c r="B48" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -19592,7 +19701,7 @@
     </row>
     <row r="49" spans="2:13" ht="15" customHeight="1">
       <c r="B49" s="21" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="28"/>
@@ -19620,10 +19729,10 @@
     </row>
     <row r="51" spans="2:13" ht="15" customHeight="1">
       <c r="B51" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -19637,7 +19746,7 @@
     </row>
     <row r="52" spans="2:13" ht="15" customHeight="1">
       <c r="B52" s="44" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
@@ -19665,7 +19774,7 @@
     </row>
     <row r="54" spans="2:13" ht="15" customHeight="1">
       <c r="B54" s="44" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="28"/>
@@ -19680,7 +19789,7 @@
     </row>
     <row r="55" spans="2:13" ht="15" customHeight="1">
       <c r="B55" s="57" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="28"/>
@@ -19708,7 +19817,7 @@
     </row>
     <row r="57" spans="2:13" ht="15" customHeight="1">
       <c r="B57" s="44" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="28"/>
@@ -19736,7 +19845,7 @@
     </row>
     <row r="59" spans="2:13" ht="15" customHeight="1">
       <c r="B59" s="44" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="28"/>
@@ -19751,7 +19860,7 @@
     </row>
     <row r="60" spans="2:13" ht="15" customHeight="1">
       <c r="B60" s="58" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="28"/>
@@ -19766,7 +19875,7 @@
     </row>
     <row r="61" spans="2:13" ht="15" customHeight="1">
       <c r="B61" s="44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="28"/>
@@ -19794,7 +19903,7 @@
     </row>
     <row r="63" spans="2:13" ht="15" customHeight="1">
       <c r="B63" s="58" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="28"/>
@@ -19809,7 +19918,7 @@
     </row>
     <row r="64" spans="2:13" ht="15" customHeight="1">
       <c r="B64" s="58" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="28"/>
@@ -19824,7 +19933,7 @@
     </row>
     <row r="65" spans="2:13" ht="15" customHeight="1">
       <c r="B65" s="44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="28"/>
@@ -19865,10 +19974,10 @@
     </row>
     <row r="68" spans="2:13" ht="15" customHeight="1">
       <c r="B68" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>333</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -19882,10 +19991,10 @@
     </row>
     <row r="69" spans="2:13" ht="15" customHeight="1">
       <c r="B69" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="27" t="s">
         <v>323</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>334</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -19912,10 +20021,10 @@
     </row>
     <row r="71" spans="2:13" ht="15" customHeight="1">
       <c r="B71" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>335</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -19929,10 +20038,10 @@
     </row>
     <row r="72" spans="2:13" ht="15" customHeight="1">
       <c r="B72" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>325</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>336</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -19946,7 +20055,7 @@
     </row>
     <row r="73" spans="2:13" ht="15" customHeight="1">
       <c r="B73" s="44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="28"/>
@@ -19962,7 +20071,7 @@
     <row r="74" spans="2:13" ht="15" customHeight="1">
       <c r="B74" s="56"/>
       <c r="D74" s="27" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -19976,10 +20085,10 @@
     </row>
     <row r="75" spans="2:13" ht="15" customHeight="1">
       <c r="B75" s="58" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -19993,10 +20102,10 @@
     </row>
     <row r="76" spans="2:13" ht="15" customHeight="1">
       <c r="B76" s="44" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -20010,10 +20119,10 @@
     </row>
     <row r="77" spans="2:13" ht="15" customHeight="1">
       <c r="B77" s="44" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -20027,10 +20136,10 @@
     </row>
     <row r="78" spans="2:13" ht="15" customHeight="1">
       <c r="B78" s="44" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -20044,10 +20153,10 @@
     </row>
     <row r="79" spans="2:13" ht="15" customHeight="1">
       <c r="B79" s="44" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -20061,10 +20170,10 @@
     </row>
     <row r="80" spans="2:13" ht="15" customHeight="1">
       <c r="B80" s="44" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -20078,7 +20187,7 @@
     </row>
     <row r="81" spans="2:13" ht="15" customHeight="1">
       <c r="B81" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D81" s="31"/>
       <c r="E81" s="32"/>
@@ -20093,10 +20202,10 @@
     </row>
     <row r="83" spans="2:13" ht="15" customHeight="1">
       <c r="B83" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -20110,10 +20219,10 @@
     </row>
     <row r="84" spans="2:13" ht="15" customHeight="1">
       <c r="B84" s="21" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -20127,7 +20236,7 @@
     </row>
     <row r="85" spans="2:13" ht="15" customHeight="1">
       <c r="B85" s="43" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="28"/>
@@ -20142,7 +20251,7 @@
     </row>
     <row r="86" spans="2:13" ht="15" customHeight="1">
       <c r="B86" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D86" s="31"/>
       <c r="E86" s="32"/>
@@ -20157,15 +20266,15 @@
     </row>
     <row r="87" spans="2:13" ht="15" customHeight="1">
       <c r="B87" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="15" customHeight="1">
       <c r="B88" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -20179,7 +20288,7 @@
     </row>
     <row r="89" spans="2:13" ht="15" customHeight="1">
       <c r="B89" s="21" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="28"/>
@@ -20194,10 +20303,10 @@
     </row>
     <row r="90" spans="2:13" ht="15" customHeight="1">
       <c r="B90" s="43" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -20212,7 +20321,7 @@
     <row r="91" spans="2:13" ht="15" customHeight="1">
       <c r="B91" s="44"/>
       <c r="D91" s="27" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -20226,7 +20335,7 @@
     </row>
     <row r="92" spans="2:13" ht="15" customHeight="1">
       <c r="B92" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D92" s="31"/>
       <c r="E92" s="32"/>
@@ -20241,15 +20350,15 @@
     </row>
     <row r="93" spans="2:13" ht="15" customHeight="1">
       <c r="B93" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="2:13" ht="15" customHeight="1">
       <c r="B94" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -20263,7 +20372,7 @@
     </row>
     <row r="95" spans="2:13" ht="15" customHeight="1">
       <c r="B95" s="21" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="28"/>
@@ -20279,7 +20388,7 @@
     <row r="96" spans="2:13" ht="15" customHeight="1">
       <c r="B96" s="57"/>
       <c r="D96" s="27" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -20293,10 +20402,10 @@
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1">
       <c r="B97" s="57" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -20310,7 +20419,7 @@
     </row>
     <row r="98" spans="2:13" ht="15" customHeight="1">
       <c r="B98" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D98" s="31"/>
       <c r="E98" s="32"/>
@@ -20325,15 +20434,15 @@
     </row>
     <row r="99" spans="2:13" ht="15" customHeight="1">
       <c r="B99" s="65" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1">
       <c r="B100" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -20347,7 +20456,7 @@
     </row>
     <row r="101" spans="2:13" ht="15" customHeight="1">
       <c r="B101" s="21" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="28"/>
@@ -20362,10 +20471,10 @@
     </row>
     <row r="102" spans="2:13" ht="15" customHeight="1">
       <c r="B102" s="43" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -20379,7 +20488,7 @@
     </row>
     <row r="103" spans="2:13" ht="15" customHeight="1">
       <c r="B103" s="44" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="28"/>
@@ -20394,10 +20503,10 @@
     </row>
     <row r="104" spans="2:13" ht="15" customHeight="1">
       <c r="B104" s="21" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -20411,7 +20520,7 @@
     </row>
     <row r="105" spans="2:13" ht="15" customHeight="1">
       <c r="B105" s="45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D105" s="31"/>
       <c r="E105" s="32"/>
@@ -20452,7 +20561,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -20469,7 +20578,7 @@
     <row r="3" spans="2:15">
       <c r="B3" s="37"/>
       <c r="D3" s="27" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -20485,10 +20594,10 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="39" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -20505,7 +20614,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="38"/>
       <c r="D5" s="31" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -20536,10 +20645,10 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="50" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -20556,7 +20665,7 @@
     <row r="8" spans="2:15">
       <c r="B8" s="22"/>
       <c r="D8" s="31" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -20573,10 +20682,10 @@
     <row r="9" spans="2:15"/>
     <row r="10" spans="2:15">
       <c r="B10" s="50" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -20591,7 +20700,7 @@
     <row r="11" spans="2:15">
       <c r="B11" s="22"/>
       <c r="D11" s="31" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -20605,15 +20714,15 @@
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="19" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -20627,10 +20736,10 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="44" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -20645,7 +20754,7 @@
     <row r="15" spans="2:15">
       <c r="B15" s="22"/>
       <c r="D15" s="31" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -20659,15 +20768,15 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="65" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="19" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -20681,10 +20790,10 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="44" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -20699,7 +20808,7 @@
     <row r="19" spans="2:13">
       <c r="B19" s="22"/>
       <c r="D19" s="31" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -20713,15 +20822,15 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="65" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1">
       <c r="B21" s="19" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -20735,10 +20844,10 @@
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="B22" s="44" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -20753,7 +20862,7 @@
     <row r="23" spans="2:13" ht="15" customHeight="1">
       <c r="B23" s="22"/>
       <c r="D23" s="31" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -20789,12 +20898,12 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="2:15">
       <c r="B2" s="51" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
@@ -20826,7 +20935,7 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="39" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
@@ -20843,7 +20952,7 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="39" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
@@ -20875,10 +20984,10 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="53" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -20894,7 +21003,7 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="21" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="28"/>
@@ -20911,7 +21020,7 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="54" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28"/>
@@ -20926,7 +21035,7 @@
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="43" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
@@ -20941,7 +21050,7 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="44" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
@@ -20956,7 +21065,7 @@
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="55" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
@@ -20972,12 +21081,12 @@
     <row r="13" spans="2:15"/>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="51" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
@@ -21003,7 +21112,7 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="39" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
@@ -21017,7 +21126,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="39" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
@@ -21043,10 +21152,10 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="53" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -21059,7 +21168,7 @@
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
       <c r="B21" s="21" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
@@ -21073,7 +21182,7 @@
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
       <c r="B22" s="54" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="28"/>
@@ -21087,7 +21196,7 @@
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
       <c r="B23" s="43" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
@@ -21101,7 +21210,7 @@
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
       <c r="B24" s="44" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="28"/>
@@ -21115,7 +21224,7 @@
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1">
       <c r="B25" s="55" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
@@ -21129,12 +21238,12 @@
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1">
       <c r="B27" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
       <c r="B28" s="51" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -21160,7 +21269,7 @@
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1">
       <c r="B30" s="39" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
@@ -21174,7 +21283,7 @@
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1">
       <c r="B31" s="39" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="28"/>
@@ -21200,10 +21309,10 @@
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1">
       <c r="B33" s="53" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -21216,7 +21325,7 @@
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1">
       <c r="B34" s="21" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
@@ -21230,7 +21339,7 @@
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1">
       <c r="B35" s="54" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="28"/>
@@ -21244,7 +21353,7 @@
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1">
       <c r="B36" s="43" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="28"/>
@@ -21258,7 +21367,7 @@
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1">
       <c r="B37" s="44" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="28"/>
@@ -21272,7 +21381,7 @@
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="55" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="32"/>
@@ -21307,7 +21416,7 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -21315,7 +21424,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -21333,7 +21442,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
@@ -21350,7 +21459,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
@@ -21367,7 +21476,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -21380,10 +21489,10 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -21397,7 +21506,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
@@ -21428,7 +21537,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -21442,10 +21551,10 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -21459,7 +21568,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="35" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -21474,10 +21583,10 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -21491,10 +21600,10 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -21508,10 +21617,10 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -21525,10 +21634,10 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="20" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -21542,7 +21651,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="35" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
@@ -21570,7 +21679,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
@@ -21585,7 +21694,7 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="20" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
@@ -21600,7 +21709,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="20" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="28"/>
@@ -21615,7 +21724,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="20" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="28"/>
@@ -21630,7 +21739,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="35" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32"/>
@@ -21645,10 +21754,10 @@
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1">
       <c r="B25" s="19" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -21662,10 +21771,10 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -21679,7 +21788,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="35" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
@@ -21694,10 +21803,10 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -21711,10 +21820,10 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -21728,7 +21837,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="35" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="32"/>
@@ -21743,10 +21852,10 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -21760,7 +21869,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="35" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
@@ -21775,7 +21884,7 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="24"/>
@@ -21790,7 +21899,7 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="35" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
@@ -21805,7 +21914,7 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
@@ -21820,7 +21929,7 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="28"/>
@@ -21835,7 +21944,7 @@
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="35" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="32"/>
@@ -21850,15 +21959,15 @@
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -21872,10 +21981,10 @@
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="21" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -21915,7 +22024,7 @@
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="28"/>
@@ -21930,7 +22039,7 @@
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="28"/>
@@ -21945,7 +22054,7 @@
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="35" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
@@ -21974,15 +22083,15 @@
     </row>
     <row r="57" spans="2:13">
       <c r="B57" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="2:13">
       <c r="B58" s="19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -21999,7 +22108,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -22016,7 +22125,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -22030,7 +22139,7 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="21" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="28"/>
@@ -22071,10 +22180,10 @@
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="54" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -22088,10 +22197,10 @@
     </row>
     <row r="65" spans="2:13">
       <c r="B65" s="20" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -22105,7 +22214,7 @@
     </row>
     <row r="66" spans="2:13">
       <c r="B66" s="54" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="28"/>
@@ -22133,10 +22242,10 @@
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="44" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -22150,7 +22259,7 @@
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="54" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="28"/>
@@ -22178,10 +22287,10 @@
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="44" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -22195,10 +22304,10 @@
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="20" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -22212,10 +22321,10 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="20" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -22229,10 +22338,10 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="54" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -22272,7 +22381,7 @@
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="44" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="28"/>
@@ -22287,7 +22396,7 @@
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="43" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="28"/>
@@ -22302,7 +22411,7 @@
     </row>
     <row r="79" spans="2:13">
       <c r="B79" s="44" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="28"/>
@@ -22330,7 +22439,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="43" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="28"/>
@@ -22345,7 +22454,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="43" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="28"/>
@@ -22360,7 +22469,7 @@
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="44" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="28"/>
@@ -22388,7 +22497,7 @@
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="43" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="28"/>
@@ -22403,7 +22512,7 @@
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="43" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="28"/>
@@ -22418,7 +22527,7 @@
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="44" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="28"/>
@@ -22459,7 +22568,7 @@
     </row>
     <row r="90" spans="2:13">
       <c r="B90" s="55" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D90" s="31"/>
       <c r="E90" s="32"/>
